--- a/COSTA_OMNICHANNEL/Put_Promotions.xlsx
+++ b/COSTA_OMNICHANNEL/Put_Promotions.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="269">
   <si>
     <t>TC_ID</t>
   </si>
@@ -852,843 +852,792 @@
     <t>$@@@</t>
   </si>
   <si>
-    <t>Bearer AQECAHiACBgFPsYPLHvnK54qxgBne25IYm1azaJ1e55xlak/LAAAAY8wggGLBgkqhkiG9w0BBwagggF8MIIBeAIBADCCAXEGCSqGSIb3DQEHATAeBglghkgBZQMEAS4wEQQMLT3a6s1MGIX8AxTcAgEQgIIBQjajKD5XLWIVbUqG66i4s+k1/XIh+iIWGohAiz9Zt5a3AsPEfBKAn9AqRyKnL90N0SL/15/WqflTSEI2YV29aTHOaqINB4Fk5FiP9+zKFZOSZfxi0kZgixJn7mT55cZMWNVfDvWi+26CpGCkLzq1SN93/bfeVJtpCZK6aRmMd0B5pawWR4ut8dpYBV+Y0D2Xc5OrokpZGhPwcl/ZKYTqSLE1Tx2JVp3dPA/CWrvDrxpKao2Zue8GtnMhix0SuJnRpDQAU0kt6uaCOl0SBwuAHWtl2A9fmnR2w8MmN9ANRvsXdWA1jqJ2w1G9Lc3RFqpbortP3y8CSsPHmqwdxo2byqtngpxP+p4eqLw4ihsNYBjst5a1/a/a/uAII3VaJoaA4El/pezMj6jUq23ttKTi2zkQ9fq/I9z50UXCt/aAacW7XWo=</t>
-  </si>
-  <si>
-    <t>MWB0187</t>
-  </si>
-  <si>
-    <t>OFFER_IS_INACTIVE</t>
-  </si>
-  <si>
-    <t>Opted promotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same promotion trying to Opt again </t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>Promotion ID: 403952</t>
-  </si>
-  <si>
-    <t>Before Optin</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "id": 403952,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "name": "Alan 123",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "optedIn": false,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "interactive": true,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "startDate": "2020-08-05"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  },</t>
-  </si>
-  <si>
-    <t>After Optin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "optedIn": true,</t>
-  </si>
-  <si>
-    <t>Bad Request</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 200 OK
-Content-Type: application/json;charset=UTF-8
-Date: Wed, 09 Sep 2020 07:19:03 GMT
-Server: nginx
-Content-Length: 55
-Connection: keep-alive
-{
-  "result": "Promotions have opted-in successfully"
-}</t>
-  </si>
-  <si>
-    <t>59031e3e-b3fe-43f3-8682-a0eea117ca64</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:22 GMT
+Date: Mon, 06 Jul 2020 06:35:45 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "f6e367e2-299f-4e86-bf54-ea02e8a8fbc7",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:22+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "b7858565-5f35-4f67-82bf-3615f15698fe",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:35:45+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>f6e367e2-299f-4e86-bf54-ea02e8a8fbc7</t>
+    <t>b7858565-5f35-4f67-82bf-3615f15698fe</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:23 GMT
+Date: Mon, 06 Jul 2020 06:35:47 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "61754732-ffbb-4d36-a316-08165177f3db",
+    "transactionId": "3a259201-7047-4386-835c-0a27b63a9980",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:23+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:35:47+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '752395175696525395245239545252222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222' for uri parameter promotionId. Invalid type String, expected Integer"
   }
 }</t>
   </si>
   <si>
-    <t>61754732-ffbb-4d36-a316-08165177f3db</t>
+    <t>3a259201-7047-4386-835c-0a27b63a9980</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:23 GMT
+Date: Mon, 06 Jul 2020 06:35:47 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "e1745d98-71dc-4472-a4bd-2862490d1685",
+    "transactionId": "05570ccc-23ec-4443-bdab-ce5d3d8306d6",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:23+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:35:47+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '\"SSS\"' for uri parameter promotionId. Invalid type String, expected Integer"
   }
 }</t>
   </si>
   <si>
-    <t>e1745d98-71dc-4472-a4bd-2862490d1685</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 404 Not Found
+    <t>05570ccc-23ec-4443-bdab-ce5d3d8306d6</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:23 GMT
+Date: Mon, 06 Jul 2020 06:35:47 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "196236c1-08e6-4167-84a2-c1c20d528e34",
-    "exceptionCode": "MWG0046",
-    "timeStamp": "2020-09-09T07:20:23+0000",
-    "message": "OFFER_NOT_FOUND",
-    "reason": "Offer with provided id not found"
+    "transactionId": "9848feaa-c58e-4f4e-9fc8-d589a5621a86",
+    "exceptionCode": "MWG0040",
+    "timeStamp": "2020-07-06T06:35:47+0000",
+    "message": "NOT_VALID_REQUEST",
+    "reason": "Invalid value 'true' for uri parameter promotionId. Invalid type Boolean, expected Integer"
   }
 }</t>
   </si>
   <si>
-    <t>196236c1-08e6-4167-84a2-c1c20d528e34</t>
+    <t>9848feaa-c58e-4f4e-9fc8-d589a5621a86</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:24 GMT
+Date: Mon, 06 Jul 2020 06:35:48 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "b6389c59-469b-4a5b-ab68-16c75a8db622",
+    "transactionId": "296cb9a5-0f30-44a9-a90e-ef720f53111a",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:24+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:35:48+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value 'null' for uri parameter promotionId. Invalid type Null, expected Integer"
   }
 }</t>
   </si>
   <si>
-    <t>b6389c59-469b-4a5b-ab68-16c75a8db622</t>
+    <t>296cb9a5-0f30-44a9-a90e-ef720f53111a</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:24 GMT
+Date: Mon, 06 Jul 2020 06:35:48 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "f1298e63-3dd7-42f1-a71c-515f250f0ae4",
+    "transactionId": "8679d491-618d-4bde-a08b-245df8cf2a28",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:24+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:35:48+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value 'vamshi' for uri parameter promotionId. Invalid type String, expected Integer"
   }
 }</t>
   </si>
   <si>
-    <t>f1298e63-3dd7-42f1-a71c-515f250f0ae4</t>
+    <t>8679d491-618d-4bde-a08b-245df8cf2a28</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:24 GMT
+Date: Mon, 06 Jul 2020 06:35:48 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "aa4a8289-bec5-4a94-a088-60b4a923f458",
+    "transactionId": "e2dd0e1e-19a1-42db-857b-7d456e52855f",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:24+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:35:48+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '222.2' for uri parameter promotionId. Invalid type Float, expected Integer"
   }
 }</t>
   </si>
   <si>
-    <t>aa4a8289-bec5-4a94-a088-60b4a923f458</t>
+    <t>e2dd0e1e-19a1-42db-857b-7d456e52855f</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:25 GMT
+Date: Mon, 06 Jul 2020 06:35:48 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "29646e3d-f4f7-44c7-8e83-7119c4e96f5d",
+    "transactionId": "65a0fb31-b538-4cb8-aa6b-db3df93112a5",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:25+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:35:48+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '$@@@' for uri parameter promotionId. Invalid type String, expected Integer"
   }
 }</t>
   </si>
   <si>
-    <t>29646e3d-f4f7-44c7-8e83-7119c4e96f5d</t>
+    <t>65a0fb31-b538-4cb8-aa6b-db3df93112a5</t>
   </si>
   <si>
     <t>HTTP/1.1 404 Not Found
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:25 GMT
+Date: Mon, 06 Jul 2020 06:35:50 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "76e13158-f7a9-4eaa-b02c-8015b4933edc",
-    "exceptionCode": "MWG0046",
-    "timeStamp": "2020-09-09T07:20:25+0000",
-    "message": "OFFER_NOT_FOUND",
-    "reason": "Offer with provided id not found"
+    "transactionId": "50251d1d-745f-421e-a4d3-94febd020ce6",
+    "exceptionCode": "MWB1019",
+    "timeStamp": "2020-07-06T06:35:50+0000",
+    "message": "PROMOTION_NOT_FOUND",
+    "reason": "Marketing offer not found by id: 3952896"
   }
 }</t>
   </si>
   <si>
-    <t>76e13158-f7a9-4eaa-b02c-8015b4933edc</t>
+    <t>50251d1d-745f-421e-a4d3-94febd020ce6</t>
+  </si>
+  <si>
+    <t>MWB0184</t>
+  </si>
+  <si>
+    <t>OFFER_ALREADY_ACCEPTED</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:37 GMT
+Date: Mon, 06 Jul 2020 06:41:54 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "fd8b4211-09e2-4415-9f31-bbfb0de6b038",
+    "transactionId": "01511cf2-946f-481b-babe-3075a1aa1471",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:37+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:54+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '' for header X-COSTA-LANG. Invalid element ."
   }
 }</t>
   </si>
   <si>
-    <t>fd8b4211-09e2-4415-9f31-bbfb0de6b038</t>
+    <t>01511cf2-946f-481b-babe-3075a1aa1471</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:37 GMT
+Date: Mon, 06 Jul 2020 06:41:54 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "d4f86c5b-5ca5-4ab5-aed1-a7d0921c2b6b",
+    "transactionId": "edae8476-e9dc-4fe9-92b6-3349d9464e2a",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:37+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:54+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value 'en-gbaaa' for header X-COSTA-LANG. Invalid element en-gbaaa."
   }
 }</t>
   </si>
   <si>
-    <t>d4f86c5b-5ca5-4ab5-aed1-a7d0921c2b6b</t>
+    <t>edae8476-e9dc-4fe9-92b6-3349d9464e2a</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:37 GMT
+Date: Mon, 06 Jul 2020 06:41:54 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "304d6135-f0f3-4605-b30a-847867eacf22",
+    "transactionId": "98b3cd9a-bb9c-4b56-a016-7d6927e0e1c2",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:37+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:54+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '123' for header X-COSTA-LANG. Invalid element 123."
   }
 }</t>
   </si>
   <si>
-    <t>304d6135-f0f3-4605-b30a-847867eacf22</t>
+    <t>98b3cd9a-bb9c-4b56-a016-7d6927e0e1c2</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:38 GMT
+Date: Mon, 06 Jul 2020 06:41:55 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "a6e31b36-e170-4995-b10a-d2e05834408e",
+    "transactionId": "0dda5d0e-ac32-4e2f-8f18-752c46f3f42f",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:38+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:55+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value 'null' for header X-COSTA-LANG. Invalid element null."
   }
 }</t>
   </si>
   <si>
-    <t>a6e31b36-e170-4995-b10a-d2e05834408e</t>
+    <t>0dda5d0e-ac32-4e2f-8f18-752c46f3f42f</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:38 GMT
+Date: Mon, 06 Jul 2020 06:41:55 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "45abb8b1-8f8e-4bf6-bd6e-73afb6f83a49",
+    "transactionId": "19a39c10-f0f2-41ba-8aab-c46d11d03c99",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:38+0000",
-    "message": "Bad Request",
-    "reason": "Invalid value '1' for header X-COSTA-LANG. Invalid element 1."
+    "timeStamp": "2020-07-06T06:41:55+0000",
+    "message": "NOT_VALID_REQUEST",
+    "reason": "Invalid value 'true' for header X-COSTA-LANG. Invalid element true."
   }
 }</t>
   </si>
   <si>
-    <t>45abb8b1-8f8e-4bf6-bd6e-73afb6f83a49</t>
+    <t>19a39c10-f0f2-41ba-8aab-c46d11d03c99</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:38 GMT
+Date: Mon, 06 Jul 2020 06:41:55 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "bf2b465b-7111-491c-9491-85e7c2150dda",
+    "transactionId": "c09aebb1-83e7-475f-863f-0c048f7165d4",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:38+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:55+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '' for header X-COSTA-COUNTRY. Invalid element ."
   }
 }</t>
   </si>
   <si>
-    <t>bf2b465b-7111-491c-9491-85e7c2150dda</t>
+    <t>c09aebb1-83e7-475f-863f-0c048f7165d4</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:38 GMT
+Date: Mon, 06 Jul 2020 06:41:56 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "ed1a1887-6109-4f16-af5f-069d00156426",
+    "transactionId": "6dd79743-9e21-4eb6-b367-25cbf08ac5a4",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:38+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:56+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value 'GB11' for header X-COSTA-COUNTRY. Invalid element GB11."
   }
 }</t>
   </si>
   <si>
-    <t>ed1a1887-6109-4f16-af5f-069d00156426</t>
+    <t>6dd79743-9e21-4eb6-b367-25cbf08ac5a4</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:39 GMT
+Date: Mon, 06 Jul 2020 06:41:56 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "0a9013ef-9169-4e93-9f90-4d16f04e62c6",
+    "transactionId": "19d7f5f9-edd7-4834-b8fa-c3b8713aff0e",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:39+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:56+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '123' for header X-COSTA-COUNTRY. Invalid element 123."
   }
 }</t>
   </si>
   <si>
-    <t>0a9013ef-9169-4e93-9f90-4d16f04e62c6</t>
+    <t>19d7f5f9-edd7-4834-b8fa-c3b8713aff0e</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:39 GMT
+Date: Mon, 06 Jul 2020 06:41:56 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "6c21fba4-a03f-4cf5-bf34-b7a90cf78fe4",
+    "transactionId": "832d1c0a-f671-404b-85b6-5d9afd021e9f",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:39+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:56+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value 'null' for header X-COSTA-COUNTRY. Invalid element null."
   }
 }</t>
   </si>
   <si>
-    <t>6c21fba4-a03f-4cf5-bf34-b7a90cf78fe4</t>
+    <t>832d1c0a-f671-404b-85b6-5d9afd021e9f</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:39 GMT
+Date: Mon, 06 Jul 2020 06:41:57 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "2884be44-9424-4b53-9a0e-2e10991bfeb4",
+    "transactionId": "8a93f736-8294-4e70-8477-f23fa80569fb",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:39+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:57+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '' for header X-COSTA-CHANNEL. Invalid element ."
   }
 }</t>
   </si>
   <si>
-    <t>2884be44-9424-4b53-9a0e-2e10991bfeb4</t>
+    <t>8a93f736-8294-4e70-8477-f23fa80569fb</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:39 GMT
+Date: Mon, 06 Jul 2020 06:41:57 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "739dd78a-be7a-480e-b8a8-4e6627f6a9d2",
+    "transactionId": "e6cbb68b-26ab-401a-8869-83e3840fa737",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:39+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:57+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value 'AAAA' for header X-COSTA-CHANNEL. Invalid element AAAA."
   }
 }</t>
   </si>
   <si>
-    <t>739dd78a-be7a-480e-b8a8-4e6627f6a9d2</t>
+    <t>e6cbb68b-26ab-401a-8869-83e3840fa737</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:40 GMT
+Date: Mon, 06 Jul 2020 06:41:57 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "761d8f98-f0bb-4011-aed8-9cdae94181d5",
+    "transactionId": "8f1102d7-d6ef-4052-9bc5-62f5f0931a48",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:40+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:57+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value '123' for header X-COSTA-CHANNEL. Invalid element 123."
   }
 }</t>
   </si>
   <si>
-    <t>761d8f98-f0bb-4011-aed8-9cdae94181d5</t>
+    <t>8f1102d7-d6ef-4052-9bc5-62f5f0931a48</t>
   </si>
   <si>
     <t>HTTP/1.1 400 Bad Request
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:40 GMT
+Date: Mon, 06 Jul 2020 06:41:58 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "a4ad2743-5ebc-47f2-bdc6-288344716f51",
+    "transactionId": "4c4cbd2c-b010-4460-bfde-75bb5738fe1d",
     "exceptionCode": "MWG0040",
-    "timeStamp": "2020-09-09T07:20:40+0000",
-    "message": "Bad Request",
+    "timeStamp": "2020-07-06T06:41:57+0000",
+    "message": "NOT_VALID_REQUEST",
     "reason": "Invalid value 'null' for header X-COSTA-CHANNEL. Invalid element null."
   }
 }</t>
   </si>
   <si>
-    <t>a4ad2743-5ebc-47f2-bdc6-288344716f51</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>4c4cbd2c-b010-4460-bfde-75bb5738fe1d</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:41 GMT
+Date: Mon, 06 Jul 2020 06:41:58 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "3854a051-08bf-4283-875d-557919d4b800",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:41+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "72f7f2f8-d962-45f8-862a-8078f4285fd3",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:41:58+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>3854a051-08bf-4283-875d-557919d4b800</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>72f7f2f8-d962-45f8-862a-8078f4285fd3</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:43 GMT
+Date: Mon, 06 Jul 2020 06:41:59 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "ec0f4233-153d-4b91-83ef-897c8b74f962",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:43+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "08ee3902-489c-47e0-af14-e057067bbf32",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:41:59+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>ec0f4233-153d-4b91-83ef-897c8b74f962</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>08ee3902-489c-47e0-af14-e057067bbf32</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:44 GMT
+Date: Mon, 06 Jul 2020 06:42:00 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "89f40a48-d59f-4689-ad9e-524fd5807e00",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:44+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "3460a471-4ba9-4d0b-950d-c319049f4a11",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:00+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>89f40a48-d59f-4689-ad9e-524fd5807e00</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>3460a471-4ba9-4d0b-950d-c319049f4a11</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:44 GMT
+Date: Mon, 06 Jul 2020 06:42:01 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "d1cb83c0-c3cc-4995-86f3-f9da438edf86",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:44+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "77d82ea4-182a-408d-a885-ec35bbdb5f45",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:01+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>d1cb83c0-c3cc-4995-86f3-f9da438edf86</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>77d82ea4-182a-408d-a885-ec35bbdb5f45</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:45 GMT
+Date: Mon, 06 Jul 2020 06:42:02 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "c5602e8b-e624-4ffe-8c1f-21df68629207",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:45+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "43849755-3027-419e-8dc1-b2ab98cba2cc",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:02+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>c5602e8b-e624-4ffe-8c1f-21df68629207</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>43849755-3027-419e-8dc1-b2ab98cba2cc</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:45 GMT
+Date: Mon, 06 Jul 2020 06:42:03 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "b093e05f-c921-44b1-969e-63b37fcbedad",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:45+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "379added-0aa1-4e89-907b-98400c7665ff",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:03+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>b093e05f-c921-44b1-969e-63b37fcbedad</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>379added-0aa1-4e89-907b-98400c7665ff</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:46 GMT
+Date: Mon, 06 Jul 2020 06:42:04 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "db052a4e-c89e-4c88-af0b-88af2d81bf67",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:46+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "b04089cc-40b5-4c4c-bded-e133dfc01ee1",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:03+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>db052a4e-c89e-4c88-af0b-88af2d81bf67</t>
+    <t>b04089cc-40b5-4c4c-bded-e133dfc01ee1</t>
   </si>
   <si>
     <t>HTTP/1.1 403 Forbidden
 Content-Type: application/json
-Date: Wed, 09 Sep 2020 07:20:46 GMT
+Date: Mon, 06 Jul 2020 06:42:04 GMT
 Server: nginx
 Content-Length: 80
 Connection: keep-alive
 { "error": "invalid_client", "description": "wrong client_id or client_secret" }</t>
   </si>
   <si>
-    <t>a3920cac-5449-4b0a-b064-d8631b209086</t>
-  </si>
-  <si>
-    <t>3340c72b-e831-4996-8293-31d603ea7fd2</t>
+    <t>a39493c4-d481-4557-b4ea-e750d7effe51</t>
+  </si>
+  <si>
+    <t>b952a308-5fad-43eb-b5d9-74dc73da84a3</t>
+  </si>
+  <si>
+    <t>c65afd23-3362-45ab-abd4-78e36f3dd0e4</t>
+  </si>
+  <si>
+    <t>92c77419-26d0-47f8-8a5a-6badde8b7d13</t>
   </si>
   <si>
     <t>HTTP/1.1 403 Forbidden
 Content-Type: application/json
-Date: Wed, 09 Sep 2020 07:20:47 GMT
+Date: Mon, 06 Jul 2020 06:42:05 GMT
 Server: nginx
 Content-Length: 80
 Connection: keep-alive
 { "error": "invalid_client", "description": "wrong client_id or client_secret" }</t>
   </si>
   <si>
-    <t>33953d36-c8ea-46cd-a1cd-b2040ede298a</t>
-  </si>
-  <si>
-    <t>a37946b5-0781-4865-bc5b-f537f61f95e3</t>
-  </si>
-  <si>
-    <t>bbed4088-a82f-4e53-b139-0e3c8cda6862</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 403 Forbidden
-Content-Type: application/json
-Date: Wed, 09 Sep 2020 07:20:48 GMT
-Server: nginx
-Content-Length: 80
-Connection: keep-alive
-{ "error": "invalid_client", "description": "wrong client_id or client_secret" }</t>
-  </si>
-  <si>
-    <t>af1d3e90-a7f4-4753-8108-c747ec3dba84</t>
-  </si>
-  <si>
-    <t>16cbab4b-dc6b-444f-9e45-76e629a7ae71</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>dc1d0444-2f62-408b-a2fa-96e41cc19aff</t>
+  </si>
+  <si>
+    <t>1d6dcc9c-0990-4eca-8d70-ec1634d87cd5</t>
+  </si>
+  <si>
+    <t>440cdf87-1e97-446b-975c-c90b0ee46e64</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:48 GMT
+Date: Mon, 06 Jul 2020 06:42:06 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "7af0badc-1492-4a0c-896f-5f2a78b78f22",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:48+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "a3f31cc8-cf56-4244-9d97-57fd32f1a31c",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:06+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>7af0badc-1492-4a0c-896f-5f2a78b78f22</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>a3f31cc8-cf56-4244-9d97-57fd32f1a31c</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:49 GMT
+Date: Mon, 06 Jul 2020 06:42:07 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "a7eb307d-2a4a-4b7e-ace3-fbae2a167812",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:49+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "548defb4-1b0d-45c5-b99e-215c857e61c3",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:07+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>a7eb307d-2a4a-4b7e-ace3-fbae2a167812</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>548defb4-1b0d-45c5-b99e-215c857e61c3</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:49 GMT
+Date: Mon, 06 Jul 2020 06:42:07 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "e6d84f12-86eb-4f45-a6b4-3947edd670ad",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:49+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "2866f1bb-dfce-470e-9680-822dbc0f0e33",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:07+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>e6d84f12-86eb-4f45-a6b4-3947edd670ad</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>2866f1bb-dfce-470e-9680-822dbc0f0e33</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:50 GMT
+Date: Mon, 06 Jul 2020 06:42:08 GMT
+Server: nginx
+Content-Length: 251
+Connection: keep-alive
+{
+  "exception": {
+    "transactionId": "75fb30e8-0dda-461d-a180-0714a4458551",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:08+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
+  }
+}</t>
+  </si>
+  <si>
+    <t>75fb30e8-0dda-461d-a180-0714a4458551</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
+Content-Type: application/json; charset=UTF-8
+Date: Mon, 06 Jul 2020 06:42:09 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "f9b20b13-a8d8-47a9-b7f9-da723178564f",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:50+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "a1f31c8f-331d-4e81-bd47-0f5bbca5f0d2",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:09+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>f9b20b13-a8d8-47a9-b7f9-da723178564f</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>a1f31c8f-331d-4e81-bd47-0f5bbca5f0d2</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:50 GMT
+Date: Mon, 06 Jul 2020 06:42:10 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "35507679-13f7-45b3-a992-3a5334957e10",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:50+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "c917f05f-7403-4f67-9f9b-19107fd90757",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:10+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>35507679-13f7-45b3-a992-3a5334957e10</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
+    <t>c917f05f-7403-4f67-9f9b-19107fd90757</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 500 Server Error
 Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:51 GMT
+Date: Mon, 06 Jul 2020 06:42:10 GMT
 Server: nginx
 transfer-encoding: chunked
 Connection: keep-alive
 {
   "exception": {
-    "transactionId": "19451834-c315-4ea7-ad4e-39fb4dd8f60f",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:51+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
+    "transactionId": "bfb5352b-5162-4437-b32d-929b3204dd4a",
+    "exceptionCode": "MWB0184",
+    "timeStamp": "2020-07-06T06:42:10+0000",
+    "message": "OFFER_ALREADY_ACCEPTED",
+    "reason": "Offer has been already accepted"
   }
 }</t>
   </si>
   <si>
-    <t>19451834-c315-4ea7-ad4e-39fb4dd8f60f</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 422 
-Content-Type: application/json; charset=UTF-8
-Date: Wed, 09 Sep 2020 07:20:52 GMT
+    <t>bfb5352b-5162-4437-b32d-929b3204dd4a</t>
+  </si>
+  <si>
+    <t>COSTA_ORGANZATION is not a mandatory header</t>
+  </si>
+  <si>
+    <t>Invalid_Scenarios</t>
+  </si>
+  <si>
+    <t>ActivationSource expected as either nav or home, raised concern to comarch team for more clarification</t>
+  </si>
+  <si>
+    <t>HTTP/1.1 200 OK
+Content-Type: application/json;charset=UTF-8
+Date: Mon, 06 Jul 2020 06:50:28 GMT
 Server: nginx
-transfer-encoding: chunked
+Content-Length: 56
 Connection: keep-alive
 {
-  "exception": {
-    "transactionId": "e233f133-eb5b-456c-8056-7475e69b3db1",
-    "exceptionCode": "MWB0187",
-    "timeStamp": "2020-09-09T07:20:52+0000",
-    "message": "OFFER_IS_INACTIVE",
-    "reason": "Offer is inactive"
-  }
+  "result": "Promotions have opted-inÂ successfully"
 }</t>
   </si>
   <si>
-    <t>e233f133-eb5b-456c-8056-7475e69b3db1</t>
+    <t>8141de11-cd15-4e58-9731-1ea8c0494457</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1783,12 +1732,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1925,7 +1868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2038,26 +1981,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2085,10 +2014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2132,591 +2058,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>46371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4295776"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>189246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5476875" y="4248151"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>93996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8153401"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>93996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2286001"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1122325</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>75286</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9906000"/>
-          <a:ext cx="13009525" cy="7314286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1122325</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>75286</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="17716500"/>
-          <a:ext cx="13009525" cy="7314286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>93996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724400" y="2286001"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>93996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5143501"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>187990</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724400" y="8763000"/>
-          <a:ext cx="9144000" cy="5140990"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>103521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="2676526"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>93996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5781675" y="2667001"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>93996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7715251"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>93996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5667375" y="7715251"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>93996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10763251"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>93996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5667375" y="10763251"/>
-          <a:ext cx="4572000" cy="2570495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3006,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3019,7 +2360,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="40.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -3046,12 +2387,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="132" customHeight="1">
+    <row r="2" spans="1:7" s="11" customFormat="1">
       <c r="A2" s="22" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="22">
-        <v>754002</v>
+        <v>3956</v>
       </c>
       <c r="C2" s="22">
         <v>200</v>
@@ -3062,98 +2403,24 @@
       <c r="E2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>200</v>
+      <c r="F2" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="52">
-        <v>44064</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="E36" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="G36" s="53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="E37" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="E38" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="G38" s="53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="E39" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="G39" s="53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="E40" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G40" s="53" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="E41" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="E42" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="G42" s="53" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:G11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3202,19 +2469,19 @@
         <v>127</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>126</v>
@@ -3237,10 +2504,10 @@
         <v>35</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>128</v>
@@ -3263,10 +2530,10 @@
         <v>35</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>128</v>
@@ -3280,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>123</v>
@@ -3289,10 +2556,10 @@
         <v>35</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>128</v>
@@ -3315,10 +2582,10 @@
         <v>35</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>128</v>
@@ -3341,10 +2608,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>128</v>
@@ -3367,10 +2634,10 @@
         <v>35</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>128</v>
@@ -3393,10 +2660,10 @@
         <v>35</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>128</v>
@@ -3419,32 +2686,17 @@
         <v>35</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3453,7 +2705,7 @@
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3546,7 +2798,7 @@
         <v>3952</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="23" t="s">
@@ -3583,16 +2835,16 @@
         <v>35</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T2" t="s">
         <v>35</v>
@@ -3609,7 +2861,7 @@
         <v>3952</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>39</v>
@@ -3648,16 +2900,16 @@
         <v>35</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T3" t="s">
         <v>35</v>
@@ -3674,7 +2926,7 @@
         <v>3952</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D4" s="24">
         <v>123</v>
@@ -3713,16 +2965,16 @@
         <v>35</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T4" t="s">
         <v>35</v>
@@ -3739,7 +2991,7 @@
         <v>3952</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>6</v>
@@ -3778,16 +3030,16 @@
         <v>35</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T5" t="s">
         <v>35</v>
@@ -3804,7 +3056,7 @@
         <v>3952</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D6" s="24" t="b">
         <v>1</v>
@@ -3843,16 +3095,16 @@
         <v>35</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="R6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T6" t="s">
         <v>35</v>
@@ -3869,7 +3121,7 @@
         <v>3952</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>52</v>
@@ -3906,16 +3158,16 @@
         <v>35</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T7" t="s">
         <v>35</v>
@@ -3932,7 +3184,7 @@
         <v>3952</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>52</v>
@@ -3971,16 +3223,16 @@
         <v>35</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="R8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T8" t="s">
         <v>35</v>
@@ -3997,7 +3249,7 @@
         <v>3952</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>52</v>
@@ -4036,16 +3288,16 @@
         <v>35</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="R9" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T9" t="s">
         <v>35</v>
@@ -4062,7 +3314,7 @@
         <v>3952</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>52</v>
@@ -4101,16 +3353,16 @@
         <v>35</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="R10" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T10" t="s">
         <v>35</v>
@@ -4127,7 +3379,7 @@
         <v>3952</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>52</v>
@@ -4164,16 +3416,16 @@
         <v>35</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="R11" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T11" s="11" t="s">
         <v>35</v>
@@ -4190,7 +3442,7 @@
         <v>3952</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>52</v>
@@ -4229,16 +3481,16 @@
         <v>35</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="R12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T12" t="s">
         <v>35</v>
@@ -4255,7 +3507,7 @@
         <v>3952</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>52</v>
@@ -4294,16 +3546,16 @@
         <v>35</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="22" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="R13" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S13" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T13" t="s">
         <v>35</v>
@@ -4320,7 +3572,7 @@
         <v>3952</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>52</v>
@@ -4359,16 +3611,16 @@
         <v>35</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="R14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="T14" t="s">
         <v>35</v>
@@ -4384,66 +3636,64 @@
       <c r="B15" s="46">
         <v>3952</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="24" t="s">
         <v>124</v>
       </c>
       <c r="G15" s="36"/>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="56" t="s">
+      <c r="J15" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="M15" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="55" t="s">
-        <v>246</v>
+      <c r="M15" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>227</v>
       </c>
       <c r="Q15" s="46" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="S15" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="T15" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="60"/>
+        <v>200</v>
+      </c>
+      <c r="T15" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="54"/>
     </row>
     <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="47" t="s">
@@ -4452,68 +3702,64 @@
       <c r="B16" s="46">
         <v>3952</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="24" t="s">
         <v>124</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="56" t="s">
+      <c r="J16" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="M16" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="55" t="s">
-        <v>248</v>
+      <c r="M16" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="R16" s="44" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="S16" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="T16" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="63"/>
+        <v>200</v>
+      </c>
+      <c r="T16" s="55"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="57"/>
     </row>
     <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="47" t="s">
@@ -4522,68 +3768,64 @@
       <c r="B17" s="46">
         <v>3952</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="24" t="s">
         <v>124</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="56" t="s">
+      <c r="J17" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="55" t="s">
-        <v>250</v>
+      <c r="M17" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>231</v>
       </c>
       <c r="Q17" s="46" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="S17" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="T17" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="U17" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="63"/>
+        <v>200</v>
+      </c>
+      <c r="T17" s="55"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="57"/>
     </row>
     <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="47" t="s">
@@ -4592,208 +3834,198 @@
       <c r="B18" s="46">
         <v>3952</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="24" t="s">
         <v>124</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="56" t="s">
+      <c r="J18" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="M18" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O18" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="55" t="s">
-        <v>252</v>
+      <c r="M18" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="Q18" s="46" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="R18" s="44" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="S18" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="T18" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="U18" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="63"/>
+        <v>200</v>
+      </c>
+      <c r="T18" s="55"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="50">
         <v>3952</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="24" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="56" t="s">
+      <c r="J19" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O19" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="55" t="s">
-        <v>254</v>
+      <c r="M19" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>235</v>
       </c>
       <c r="Q19" s="46" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="S19" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="T19" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="U19" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="T19" s="58"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="60"/>
     </row>
     <row r="20" spans="1:26" ht="16.5">
       <c r="A20" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="50">
         <v>3952</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="24" t="s">
         <v>124</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="56" t="s">
+      <c r="J20" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="M20" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O20" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="55" t="s">
-        <v>256</v>
+      <c r="M20" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>237</v>
       </c>
       <c r="Q20" s="46" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="R20" s="44" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="S20" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="T20" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="60"/>
+        <v>200</v>
+      </c>
+      <c r="T20" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="54"/>
     </row>
     <row r="21" spans="1:26" ht="16.5">
       <c r="A21" s="47" t="s">
@@ -4802,68 +4034,64 @@
       <c r="B21" s="46">
         <v>3952</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="24" t="s">
         <v>124</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="56" t="s">
+      <c r="J21" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="M21" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O21" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P21" s="55" t="s">
-        <v>258</v>
+      <c r="M21" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>239</v>
       </c>
       <c r="Q21" s="46" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="S21" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="T21" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="U21" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="66"/>
+        <v>200</v>
+      </c>
+      <c r="T21" s="58"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="60"/>
     </row>
     <row r="22" spans="1:26" ht="16.5">
       <c r="A22" s="12" t="s">
@@ -4873,7 +4101,7 @@
         <v>3952</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>52</v>
@@ -4910,14 +4138,12 @@
         <v>35</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>35</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="R22" s="25"/>
       <c r="S22" s="25" t="s">
         <v>35</v>
       </c>
@@ -4936,7 +4162,7 @@
         <v>3952</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>52</v>
@@ -4975,10 +4201,10 @@
         <v>35</v>
       </c>
       <c r="P23" s="22" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="Q23" s="22" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="R23" s="25" t="s">
         <v>35</v>
@@ -5001,7 +4227,7 @@
         <v>3952</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>52</v>
@@ -5038,10 +4264,10 @@
         <v>35</v>
       </c>
       <c r="P24" s="22" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="Q24" s="22" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="R24" s="25" t="s">
         <v>35</v>
@@ -5064,7 +4290,7 @@
         <v>3952</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>52</v>
@@ -5103,10 +4329,10 @@
         <v>35</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="R25" s="25" t="s">
         <v>35</v>
@@ -5129,7 +4355,7 @@
         <v>3952</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>52</v>
@@ -5164,10 +4390,10 @@
         <v>35</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="Q26" s="22" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="R26" s="25" t="s">
         <v>35</v>
@@ -5190,7 +4416,7 @@
         <v>3952</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>52</v>
@@ -5225,10 +4451,10 @@
         <v>35</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="R27" s="25" t="s">
         <v>35</v>
@@ -5251,7 +4477,7 @@
         <v>3952</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>52</v>
@@ -5286,10 +4512,10 @@
         <v>35</v>
       </c>
       <c r="P28" s="22" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="R28" s="25" t="s">
         <v>35</v>
@@ -5311,410 +4537,388 @@
       <c r="B29" s="46">
         <v>3952</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="56" t="s">
+      <c r="G29" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I29" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J29" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K29" s="56" t="s">
+      <c r="J29" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K29" s="36" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="M29" s="67">
-        <v>422</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O29" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P29" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q29" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="R29" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="S29" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="T29" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="U29" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
+      <c r="M29" s="49">
+        <v>404</v>
+      </c>
+      <c r="N29" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q29" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="R29" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="S29" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="T29" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
     </row>
     <row r="30" spans="1:26" ht="16.5">
       <c r="A30" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="50">
         <v>3952</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="I30" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K30" s="56" t="s">
+      <c r="J30" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K30" s="36" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="36"/>
-      <c r="M30" s="67">
-        <v>422</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O30" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P30" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q30" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="R30" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="S30" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="T30" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="U30" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
+      <c r="M30" s="49">
+        <v>404</v>
+      </c>
+      <c r="N30" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="R30" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="S30" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
     </row>
     <row r="31" spans="1:26" ht="16.5">
       <c r="A31" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="50">
         <v>3952</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="54" t="s">
+      <c r="C31" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="55" t="s">
+      <c r="H31" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="55" t="s">
+      <c r="I31" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K31" s="56" t="s">
+      <c r="J31" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K31" s="36" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="67">
-        <v>422</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O31" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P31" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q31" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="R31" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="S31" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="T31" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="U31" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
+      <c r="M31" s="49">
+        <v>404</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="R31" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="S31" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
     </row>
     <row r="32" spans="1:26" ht="16.5">
       <c r="A32" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="50">
         <v>3952</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="54" t="s">
+      <c r="C32" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="54" t="s">
+      <c r="F32" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I32" s="55" t="s">
+      <c r="I32" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K32" s="56" t="s">
+      <c r="J32" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K32" s="36" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="M32" s="67">
-        <v>422</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O32" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P32" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q32" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="R32" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="S32" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="T32" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="U32" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
+      <c r="M32" s="49">
+        <v>404</v>
+      </c>
+      <c r="N32" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="R32" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
     </row>
     <row r="33" spans="1:25" ht="16.5">
       <c r="A33" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="50">
         <v>3952</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="54" t="s">
+      <c r="C33" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="55" t="s">
+      <c r="H33" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="I33" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J33" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K33" s="56" t="s">
+      <c r="J33" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K33" s="36" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="M33" s="67">
-        <v>422</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O33" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P33" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q33" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="R33" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="S33" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="T33" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="U33" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
+      <c r="M33" s="49">
+        <v>404</v>
+      </c>
+      <c r="N33" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="R33" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="S33" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
     </row>
     <row r="34" spans="1:25" ht="16.5">
       <c r="A34" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="50">
         <v>3952</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="54" t="s">
+      <c r="C34" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="55" t="s">
+      <c r="H34" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="55" t="s">
+      <c r="I34" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K34" s="56" t="s">
+      <c r="J34" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K34" s="36" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="36">
         <v>1234567</v>
       </c>
-      <c r="M34" s="67">
-        <v>422</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O34" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q34" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="R34" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="S34" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="T34" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="U34" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
+      <c r="M34" s="49">
+        <v>404</v>
+      </c>
+      <c r="N34" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q34" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="R34" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="S34" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
     </row>
     <row r="35" spans="1:25" ht="16.5">
       <c r="A35" s="47" t="s">
@@ -5723,67 +4927,63 @@
       <c r="B35" s="46">
         <v>3952</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D35" s="54" t="s">
+      <c r="C35" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="55" t="s">
+      <c r="H35" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J35" s="56">
-        <v>1233</v>
-      </c>
-      <c r="K35" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="49" t="s">
+      <c r="J35" s="36">
+        <v>1233</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="M35" s="67">
-        <v>422</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O35" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q35" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="R35" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="S35" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="T35" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="U35" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
+      <c r="M35" s="49">
+        <v>404</v>
+      </c>
+      <c r="N35" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q35" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="R35" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="S35" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5796,7 +4996,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
